--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1177.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1177.xlsx
@@ -354,7 +354,7 @@
         <v>1.894626626721477</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.08953383467354</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1177.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1177.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.098285019385489</v>
+        <v>1.166428089141846</v>
       </c>
       <c r="B1">
-        <v>1.894626626721477</v>
+        <v>2.437504291534424</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.08953383467354</v>
+        <v>2.368390798568726</v>
       </c>
       <c r="E1">
-        <v>1.122101327443965</v>
+        <v>1.234018802642822</v>
       </c>
     </row>
   </sheetData>
